--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -13,10 +13,11 @@
     <sheet name="store types" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$V$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">template!$A$1:$V$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$V$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$V$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="216">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude product_type</t>
   </si>
   <si>
     <t xml:space="preserve">exclude skus</t>
@@ -1056,43 +1060,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:72"/>
+  <dimension ref="1:71"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.5357142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="40.5"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="152.40306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="170.627551020408"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="3" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="80.5918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="150.785714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="168.739795918367"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="3" width="7.56122448979592"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1150,86 +1154,89 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="9" t="n">
         <v>20</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="S2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="0"/>
+      <c r="W2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="7"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -2231,73 +2238,73 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="n">
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9" t="n">
         <v>20</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="R3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="0"/>
+      <c r="V3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -3299,73 +3306,73 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="10" t="n">
         <v>5</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="R4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="0"/>
+      <c r="W4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="7"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -4367,72 +4374,72 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="10" t="n">
         <v>5</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="0"/>
+      <c r="R5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
       <c r="Z5" s="0"/>
@@ -5435,73 +5442,73 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="9" t="s">
+      <c r="R6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="0"/>
+        <v>55</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="7"/>
       <c r="Y6" s="0"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
@@ -6503,73 +6510,73 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="10" t="n">
         <v>25</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="9" t="s">
+      <c r="R7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="0"/>
+      <c r="W7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="7"/>
       <c r="Y7" s="0"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
@@ -7571,122 +7578,123 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="19" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="15" t="n">
+      <c r="F8" s="15"/>
+      <c r="G8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="15" t="n">
         <v>153</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="15" t="n">
         <v>10</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="Q8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q9" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>69</v>
@@ -7694,17 +7702,19 @@
       <c r="S9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="0"/>
+        <v>73</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="7"/>
       <c r="Y9" s="0"/>
       <c r="Z9" s="0"/>
       <c r="AA9" s="0"/>
@@ -8706,189 +8716,189 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="19" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="15" t="n">
+      <c r="F10" s="15"/>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="Q10" s="15" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>69</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="U10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="16" t="s">
         <v>77</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="18"/>
     </row>
-    <row r="11" s="19" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15" t="n">
+      <c r="F11" s="15"/>
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15" t="n">
         <v>162</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>60</v>
+      <c r="I11" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="Q11" s="15" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>69</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W11" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>69</v>
@@ -8896,17 +8906,19 @@
       <c r="S12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="7"/>
       <c r="Y12" s="0"/>
       <c r="Z12" s="0"/>
       <c r="AA12" s="0"/>
@@ -9908,55 +9920,53 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>87</v>
+        <v>28</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q13" s="9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>69</v>
@@ -9964,17 +9974,19 @@
       <c r="S13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>85</v>
+      <c r="T13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="7"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
       <c r="AA13" s="0"/>
@@ -10976,55 +10988,53 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q14" s="9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>69</v>
@@ -11032,17 +11042,19 @@
       <c r="S14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>85</v>
+      <c r="T14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="7"/>
       <c r="Y14" s="0"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
@@ -12044,55 +12056,53 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q15" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>69</v>
@@ -12100,17 +12110,19 @@
       <c r="S15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>85</v>
+      <c r="T15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="7"/>
       <c r="Y15" s="0"/>
       <c r="Z15" s="0"/>
       <c r="AA15" s="0"/>
@@ -13114,53 +13126,51 @@
     </row>
     <row r="16" s="28" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="23" t="n">
+        <v>84</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="P16" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="Q16" s="23" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>69</v>
@@ -13168,85 +13178,88 @@
       <c r="S16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="23" t="s">
+      <c r="T16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="26" t="s">
         <v>98</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="27" t="n">
+        <v>99</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="27" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q17" s="9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="12" t="s">
+      <c r="S17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="12" t="s">
         <v>104</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W17" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
       <c r="Z17" s="0"/>
@@ -14249,138 +14262,138 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="21" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="21" t="n">
+        <v>28</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="P18" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="Q18" s="21" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R18" s="21" t="s">
         <v>69</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U18" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="V18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="30"/>
     </row>
-    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q19" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U19" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="0"/>
+      <c r="V19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="X19" s="0"/>
       <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
@@ -15383,73 +15396,73 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q20" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T20" s="2" t="s">
+      <c r="S20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="0"/>
+      <c r="U20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="7"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
@@ -16451,139 +16464,140 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="13" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="V21" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="P21" s="10" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U21" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q22" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U22" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" s="0"/>
+      <c r="T22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
       <c r="Z22" s="0"/>
@@ -17586,139 +17600,140 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="19" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="15" t="n">
+        <v>162</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="W23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="15" t="n">
-        <v>162</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P23" s="15" t="s">
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q24" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="X24" s="0"/>
       <c r="Y24" s="0"/>
       <c r="Z24" s="0"/>
@@ -18721,73 +18736,73 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="0"/>
+      <c r="W25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="7"/>
       <c r="Y25" s="0"/>
       <c r="Z25" s="0"/>
       <c r="AA25" s="0"/>
@@ -19789,73 +19804,73 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>90</v>
+      <c r="F26" s="9"/>
+      <c r="G26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q26" s="9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" s="7"/>
       <c r="Y26" s="0"/>
       <c r="Z26" s="0"/>
       <c r="AA26" s="0"/>
@@ -20857,72 +20872,72 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q27" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" s="0"/>
+        <v>118</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="0"/>
       <c r="Z27" s="0"/>
@@ -21925,73 +21940,73 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W28" s="7"/>
-      <c r="X28" s="0"/>
+      <c r="V28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="7"/>
       <c r="Y28" s="0"/>
       <c r="Z28" s="0"/>
       <c r="AA28" s="0"/>
@@ -22993,73 +23008,75 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>27</v>
+      <c r="F29" s="9"/>
+      <c r="G29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q29" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" s="12" t="s">
         <v>72</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="0"/>
+        <v>73</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="7"/>
       <c r="Y29" s="0"/>
       <c r="Z29" s="0"/>
       <c r="AA29" s="0"/>
@@ -24061,73 +24078,73 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="U30" s="32" t="s">
+      <c r="T30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="V30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W30" s="7"/>
-      <c r="X30" s="0"/>
+      <c r="V30" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X30" s="7"/>
       <c r="Y30" s="0"/>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
@@ -25129,73 +25146,73 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="P31" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q31" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="U31" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="0"/>
+        <v>122</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X31" s="7"/>
       <c r="Y31" s="0"/>
       <c r="Z31" s="0"/>
       <c r="AA31" s="0"/>
@@ -26197,73 +26214,73 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P32" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q32" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U32" s="9" t="s">
+      <c r="T32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>85</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="7"/>
       <c r="Y32" s="0"/>
       <c r="Z32" s="0"/>
       <c r="AA32" s="0"/>
@@ -27265,73 +27282,73 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>87</v>
+        <v>28</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P33" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q33" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>85</v>
+      <c r="T33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X33" s="7"/>
       <c r="Y33" s="0"/>
       <c r="Z33" s="0"/>
       <c r="AA33" s="0"/>
@@ -28333,73 +28350,73 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P34" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q34" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>85</v>
+      <c r="T34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X34" s="7"/>
       <c r="Y34" s="0"/>
       <c r="Z34" s="0"/>
       <c r="AA34" s="0"/>
@@ -29401,73 +29418,73 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>93</v>
+        <v>28</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P35" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q35" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>85</v>
+      <c r="T35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" s="7"/>
       <c r="Y35" s="0"/>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
@@ -30469,73 +30486,73 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q36" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="U36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="0"/>
+      <c r="U36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" s="7"/>
       <c r="Y36" s="0"/>
       <c r="Z36" s="0"/>
       <c r="AA36" s="0"/>
@@ -31537,140 +31554,141 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>160</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="15" t="n">
-        <v>160</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="P37" s="15" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q37" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="V37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W37" s="18"/>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="P38" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q38" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="S38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="U38" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="0"/>
+        <v>122</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V38" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="7"/>
       <c r="Y38" s="0"/>
       <c r="Z38" s="0"/>
       <c r="AA38" s="0"/>
@@ -32672,73 +32690,73 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P39" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q39" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U39" s="12" t="s">
         <v>85</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W39" s="7"/>
-      <c r="X39" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X39" s="7"/>
       <c r="Y39" s="0"/>
       <c r="Z39" s="0"/>
       <c r="AA39" s="0"/>
@@ -33740,73 +33758,73 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W40" s="7"/>
-      <c r="X40" s="0"/>
+      <c r="W40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X40" s="7"/>
       <c r="Y40" s="0"/>
       <c r="Z40" s="0"/>
       <c r="AA40" s="0"/>
@@ -34808,73 +34826,73 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q41" s="3" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W41" s="7"/>
-      <c r="X41" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X41" s="7"/>
       <c r="Y41" s="0"/>
       <c r="Z41" s="0"/>
       <c r="AA41" s="0"/>
@@ -35876,73 +35894,73 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q42" s="3" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X42" s="7"/>
       <c r="Y42" s="0"/>
       <c r="Z42" s="0"/>
       <c r="AA42" s="0"/>
@@ -36944,73 +36962,73 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="P43" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Q43" s="9" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T43" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="U43" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" s="7"/>
-      <c r="X43" s="0"/>
+      <c r="U43" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V43" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X43" s="7"/>
       <c r="Y43" s="0"/>
       <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
@@ -38012,138 +38030,141 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="19" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="D44" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="15" t="n">
+      <c r="F44" s="15"/>
+      <c r="G44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="15" t="n">
         <v>160</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="16" t="s">
         <v>60</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="Q44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T44" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T44" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="U44" s="15" t="s">
-        <v>77</v>
+      <c r="U44" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W44" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="W44" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>27</v>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P45" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q45" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U45" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="V45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W45" s="7"/>
-      <c r="X45" s="0"/>
+      <c r="U45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V45" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X45" s="7"/>
       <c r="Y45" s="0"/>
       <c r="Z45" s="0"/>
       <c r="AA45" s="0"/>
@@ -39147,69 +39168,69 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>27</v>
+      <c r="F46" s="9"/>
+      <c r="G46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P46" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q46" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="U46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U46" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="V46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="0"/>
+      <c r="V46" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X46" s="7"/>
       <c r="Y46" s="0"/>
       <c r="Z46" s="0"/>
       <c r="AA46" s="0"/>
@@ -40213,71 +40234,71 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O47" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="P47" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q47" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="U47" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="V47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="0"/>
+      <c r="R47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V47" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X47" s="7"/>
       <c r="Y47" s="0"/>
       <c r="Z47" s="0"/>
       <c r="AA47" s="0"/>
@@ -41279,73 +41300,73 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O48" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Q48" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S48" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="U48" s="32" t="s">
+      <c r="U48" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="V48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="0"/>
+      <c r="V48" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X48" s="7"/>
       <c r="Y48" s="0"/>
       <c r="Z48" s="0"/>
       <c r="AA48" s="0"/>
@@ -42347,73 +42368,73 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Q49" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W49" s="7"/>
-      <c r="X49" s="0"/>
+        <v>142</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X49" s="7"/>
       <c r="Y49" s="0"/>
       <c r="Z49" s="0"/>
       <c r="AA49" s="0"/>
@@ -43415,73 +43436,73 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>87</v>
+        <v>35</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Q50" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W50" s="7"/>
-      <c r="X50" s="0"/>
+        <v>142</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X50" s="7"/>
       <c r="Y50" s="0"/>
       <c r="Z50" s="0"/>
       <c r="AA50" s="0"/>
@@ -44483,73 +44504,73 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Q51" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" s="7"/>
-      <c r="X51" s="0"/>
+        <v>142</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" s="7"/>
       <c r="Y51" s="0"/>
       <c r="Z51" s="0"/>
       <c r="AA51" s="0"/>
@@ -45551,73 +45572,73 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Q52" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W52" s="7"/>
-      <c r="X52" s="0"/>
+        <v>142</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X52" s="7"/>
       <c r="Y52" s="0"/>
       <c r="Z52" s="0"/>
       <c r="AA52" s="0"/>
@@ -46619,73 +46640,73 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P53" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q53" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S53" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="T53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T53" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="U53" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="V53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" s="7"/>
-      <c r="X53" s="0"/>
+      <c r="U53" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="V53" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X53" s="7"/>
       <c r="Y53" s="0"/>
       <c r="Z53" s="0"/>
       <c r="AA53" s="0"/>
@@ -47689,71 +47710,71 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O54" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="P54" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q54" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S54" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="U54" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="V54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W54" s="7"/>
-      <c r="X54" s="0"/>
+      <c r="R54" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U54" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="V54" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X54" s="7"/>
       <c r="Y54" s="0"/>
       <c r="Z54" s="0"/>
       <c r="AA54" s="0"/>
@@ -48757,71 +48778,70 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P55" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="U55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>148</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="7"/>
-      <c r="X55" s="0"/>
+        <v>149</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X55" s="7"/>
       <c r="Y55" s="0"/>
       <c r="Z55" s="0"/>
       <c r="AA55" s="0"/>
@@ -49825,71 +49845,70 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P56" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q56" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>134</v>
+      <c r="U56" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W56" s="7"/>
-      <c r="X56" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X56" s="7"/>
       <c r="Y56" s="0"/>
       <c r="Z56" s="0"/>
       <c r="AA56" s="0"/>
@@ -50893,71 +50912,70 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O57" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P57" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q57" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U57" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="R57" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="V57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W57" s="7"/>
-      <c r="X57" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X57" s="7"/>
       <c r="Y57" s="0"/>
       <c r="Z57" s="0"/>
       <c r="AA57" s="0"/>
@@ -51959,73 +51977,72 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>27</v>
+        <v>159</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P58" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U58" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="R58" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="V58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W58" s="7"/>
-      <c r="X58" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X58" s="7"/>
       <c r="Y58" s="0"/>
       <c r="Z58" s="0"/>
       <c r="AA58" s="0"/>
@@ -53029,71 +53046,70 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O59" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P59" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q59" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>134</v>
+      <c r="U59" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W59" s="7"/>
-      <c r="X59" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X59" s="7"/>
       <c r="Y59" s="0"/>
       <c r="Z59" s="0"/>
       <c r="AA59" s="0"/>
@@ -54097,71 +54113,70 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>162</v>
+        <v>28</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P60" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q60" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U60" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="R60" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="V60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W60" s="7"/>
-      <c r="X60" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X60" s="7"/>
       <c r="Y60" s="0"/>
       <c r="Z60" s="0"/>
       <c r="AA60" s="0"/>
@@ -55163,73 +55178,72 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>27</v>
+        <v>159</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>162</v>
+        <v>28</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O61" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P61" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U61" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="R61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="V61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" s="7"/>
-      <c r="X61" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X61" s="7"/>
       <c r="Y61" s="0"/>
       <c r="Z61" s="0"/>
       <c r="AA61" s="0"/>
@@ -56233,71 +56247,70 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T62" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>134</v>
+      <c r="U62" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W62" s="7"/>
-      <c r="X62" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" s="7"/>
       <c r="Y62" s="0"/>
       <c r="Z62" s="0"/>
       <c r="AA62" s="0"/>
@@ -57299,73 +57312,72 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>167</v>
+        <v>28</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P63" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q63" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="U63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>171</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W63" s="7"/>
-      <c r="X63" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X63" s="7"/>
       <c r="Y63" s="0"/>
       <c r="Z63" s="0"/>
       <c r="AA63" s="0"/>
@@ -58367,73 +58379,72 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>27</v>
+        <v>159</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>167</v>
+        <v>28</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O64" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P64" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q64" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="U64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W64" s="7"/>
-      <c r="X64" s="0"/>
+      <c r="W64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X64" s="7"/>
       <c r="Y64" s="0"/>
       <c r="Z64" s="0"/>
       <c r="AA64" s="0"/>
@@ -59437,71 +59448,70 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>27</v>
+      <c r="L65" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O65" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P65" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q65" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X65" s="7"/>
       <c r="Y65" s="0"/>
       <c r="Z65" s="0"/>
       <c r="AA65" s="0"/>
@@ -60503,73 +60513,72 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>27</v>
+        <v>174</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O66" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P66" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q66" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W66" s="7"/>
-      <c r="X66" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X66" s="7"/>
       <c r="Y66" s="0"/>
       <c r="Z66" s="0"/>
       <c r="AA66" s="0"/>
@@ -61571,73 +61580,72 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>27</v>
+        <v>159</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>27</v>
+        <v>174</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P67" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q67" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" s="7"/>
-      <c r="X67" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X67" s="7"/>
       <c r="Y67" s="0"/>
       <c r="Z67" s="0"/>
       <c r="AA67" s="0"/>
@@ -62641,71 +62649,70 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O68" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P68" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q68" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R68" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R68" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="U68" s="1" t="s">
+      <c r="U68" s="2" t="s">
         <v>182</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W68" s="7"/>
-      <c r="X68" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X68" s="7"/>
       <c r="Y68" s="0"/>
       <c r="Z68" s="0"/>
       <c r="AA68" s="0"/>
@@ -63709,71 +63716,70 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q69" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W69" s="7"/>
-      <c r="X69" s="0"/>
+      <c r="W69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X69" s="7"/>
       <c r="Y69" s="0"/>
       <c r="Z69" s="0"/>
       <c r="AA69" s="0"/>
@@ -64777,71 +64783,70 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O70" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P70" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q70" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W70" s="7"/>
-      <c r="X70" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X70" s="7"/>
       <c r="Y70" s="0"/>
       <c r="Z70" s="0"/>
       <c r="AA70" s="0"/>
@@ -65845,71 +65850,71 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T71" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V71" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" s="7"/>
-      <c r="X71" s="0"/>
+      <c r="U71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X71" s="7"/>
       <c r="Y71" s="0"/>
       <c r="Z71" s="0"/>
       <c r="AA71" s="0"/>
@@ -66911,53 +66916,8 @@
       <c r="AMI71" s="0"/>
       <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V71"/>
+  <autoFilter ref="A1:W71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -66981,105 +66941,108 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>209</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -67105,20 +67068,23 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="219">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -101,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/BET</t>
   </si>
   <si>
     <t xml:space="preserve">Set MADRES</t>
@@ -382,6 +386,12 @@
     <t xml:space="preserve">Product Availability KPI: If in any of the scene types there is at least 1 facing for attribute AC/BET "Yes" and Manufacturer "ABI-GM", then pass.</t>
   </si>
   <si>
+    <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, Store Additional Attribute 13, template_name,AC/BET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Set FRIA Botella Cerrada Sin Cooler</t>
   </si>
   <si>
@@ -395,6 +405,9 @@
   </si>
   <si>
     <t xml:space="preserve">Set FRIA Botella Abierta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU,Other,Empty</t>
   </si>
   <si>
     <t xml:space="preserve">BA</t>
@@ -497,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">Invasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU,Other,Empty</t>
   </si>
   <si>
     <t xml:space="preserve">Coca Cola</t>
@@ -746,7 +756,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +785,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +851,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -958,7 +980,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,7 +1055,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1028,7 +1074,7 @@
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1062,41 +1108,42 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="80.5918367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="58.1836734693878"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="150.785714285714"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="168.739795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="3" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="79.6428571428571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="149.030612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="163.204081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="3" width="7.4234693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1168,73 +1215,76 @@
       </c>
       <c r="X1" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="9" t="n">
         <v>20</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="0"/>
@@ -2238,71 +2288,71 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="9" t="n">
         <v>20</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="0"/>
@@ -3306,71 +3356,71 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="10" t="n">
         <v>5</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="0"/>
@@ -4374,71 +4424,71 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" s="10" t="n">
         <v>5</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
@@ -5444,69 +5494,69 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="9" t="n">
         <v>15</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="0"/>
@@ -6510,71 +6560,71 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7" s="10" t="n">
         <v>25</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="0"/>
@@ -7578,141 +7628,141 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15" t="n">
         <v>153</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="15" t="n">
         <v>10</v>
       </c>
       <c r="Q8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="T8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="0"/>
@@ -8716,207 +8766,207 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="15" t="n">
         <v>10</v>
       </c>
       <c r="Q10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="U10" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="15" t="n">
         <v>162</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Q11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="U11" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="0"/>
@@ -9922,69 +9972,69 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="0"/>
@@ -10990,69 +11040,69 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P14" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="0"/>
@@ -12056,71 +12106,71 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="0"/>
@@ -13126,69 +13176,69 @@
     </row>
     <row r="16" s="28" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P16" s="23" t="n">
         <v>10</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X16" s="27" t="n">
         <v>1</v>
@@ -13196,69 +13246,69 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P17" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
@@ -14264,135 +14314,135 @@
     </row>
     <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P18" s="21" t="n">
         <v>30</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V19" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X19" s="0"/>
       <c r="Y19" s="0"/>
@@ -15398,72 +15448,74 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V20" s="31" t="s">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="V20" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X20" s="7"/>
-      <c r="Y20" s="0"/>
+      <c r="Y20" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
@@ -16466,137 +16518,137 @@
     </row>
     <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P21" s="10" t="n">
         <v>40</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="V21" s="32" t="s">
-        <v>73</v>
+        <v>108</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V22" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
@@ -17600,139 +17652,139 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="15" t="n">
         <v>162</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P23" s="15" t="n">
         <v>5</v>
       </c>
       <c r="Q23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="U23" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X24" s="0"/>
       <c r="Y24" s="0"/>
@@ -18738,69 +18790,69 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P25" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="0"/>
@@ -19806,69 +19858,69 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="0"/>
@@ -20872,71 +20924,71 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="0"/>
@@ -21942,72 +21994,74 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P28" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="V28" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="V28" s="32" t="s">
-        <v>73</v>
-      </c>
       <c r="W28" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X28" s="7"/>
-      <c r="Y28" s="0"/>
+      <c r="Y28" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="Z28" s="0"/>
       <c r="AA28" s="0"/>
       <c r="AB28" s="0"/>
@@ -23010,74 +23064,74 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P29" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V29" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="V29" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="W29" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X29" s="7"/>
-      <c r="Y29" s="0"/>
+      <c r="Y29" s="37"/>
       <c r="Z29" s="0"/>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0"/>
@@ -24080,69 +24134,69 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P30" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="V30" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="0"/>
@@ -25148,69 +25202,69 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P31" s="9" t="n">
         <v>35</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V31" s="32" t="s">
-        <v>73</v>
+        <v>108</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="0"/>
@@ -26214,71 +26268,71 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P32" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="0"/>
@@ -27284,69 +27338,69 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P33" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="0"/>
@@ -28352,69 +28406,69 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P34" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="0"/>
@@ -29418,71 +29472,71 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P35" s="9" t="n">
         <v>5</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="0"/>
@@ -30488,72 +30542,74 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P36" s="9" t="n">
         <v>15</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="V36" s="32" t="s">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="V36" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X36" s="7"/>
-      <c r="Y36" s="0"/>
+      <c r="Y36" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="Z36" s="0"/>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0"/>
@@ -31554,139 +31610,139 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H37" s="15" t="n">
         <v>160</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P37" s="15" t="n">
         <v>10</v>
       </c>
       <c r="Q37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="T37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="U37" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P38" s="9" t="n">
         <v>40</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V38" s="32" t="s">
-        <v>73</v>
+        <v>108</v>
+      </c>
+      <c r="V38" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="0"/>
@@ -32690,71 +32746,71 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P39" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="0"/>
@@ -33760,69 +33816,69 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="0"/>
@@ -34828,69 +34884,69 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="0"/>
@@ -35894,71 +35950,71 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="0"/>
@@ -36964,72 +37020,74 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P43" s="9" t="n">
         <v>25</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S43" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="V43" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="T43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="V43" s="32" t="s">
-        <v>73</v>
-      </c>
       <c r="W43" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X43" s="7"/>
-      <c r="Y43" s="0"/>
+      <c r="Y43" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
       <c r="AB43" s="0"/>
@@ -38030,139 +38088,139 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H44" s="15" t="n">
         <v>160</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P44" s="15" t="n">
         <v>10</v>
       </c>
       <c r="Q44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="S44" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="U44" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P45" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V45" s="32" t="s">
-        <v>133</v>
+        <v>73</v>
+      </c>
+      <c r="V45" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="0"/>
@@ -39168,67 +39226,67 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P46" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="V46" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="V46" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="0"/>
@@ -40234,69 +40292,69 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P47" s="9" t="n">
         <v>15</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V47" s="32" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="V47" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="0"/>
@@ -41302,69 +41360,69 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>15</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="V48" s="32" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="V48" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="W48" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="0"/>
@@ -42368,71 +42426,71 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="0"/>
@@ -43438,69 +43496,69 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="0"/>
@@ -44506,69 +44564,69 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X51" s="7"/>
       <c r="Y51" s="0"/>
@@ -45572,71 +45630,71 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="V52" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="0"/>
@@ -46640,71 +46698,71 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P53" s="9" t="n">
         <v>10</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="V53" s="32" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="V53" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X53" s="7"/>
       <c r="Y53" s="0"/>
@@ -47710,69 +47768,69 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="D54" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P54" s="9" t="n">
         <v>20</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U54" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V54" s="32" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="V54" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="0"/>
@@ -48778,68 +48836,69 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E55" s="0"/>
       <c r="F55" s="3"/>
       <c r="G55" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="0"/>
@@ -49845,68 +49904,69 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E56" s="0"/>
       <c r="F56" s="3"/>
       <c r="G56" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="0"/>
@@ -50912,68 +50972,69 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E57" s="0"/>
       <c r="F57" s="3"/>
       <c r="G57" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="0"/>
@@ -51979,68 +52040,69 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E58" s="0"/>
       <c r="F58" s="3"/>
       <c r="G58" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X58" s="7"/>
       <c r="Y58" s="0"/>
@@ -53046,68 +53108,69 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E59" s="0"/>
       <c r="F59" s="3"/>
       <c r="G59" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="0"/>
@@ -54113,68 +54176,69 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E60" s="0"/>
       <c r="F60" s="3"/>
       <c r="G60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="V60" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="0"/>
@@ -55180,68 +55244,69 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E61" s="0"/>
       <c r="F61" s="3"/>
       <c r="G61" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="0"/>
@@ -56247,68 +56312,69 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E62" s="0"/>
       <c r="F62" s="3"/>
       <c r="G62" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="0"/>
@@ -57314,68 +57380,69 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E63" s="0"/>
       <c r="F63" s="3"/>
       <c r="G63" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="0"/>
@@ -58381,68 +58448,69 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E64" s="0"/>
       <c r="F64" s="3"/>
       <c r="G64" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S64" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X64" s="7"/>
       <c r="Y64" s="0"/>
@@ -59448,68 +59516,69 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E65" s="0"/>
       <c r="F65" s="3"/>
       <c r="G65" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S65" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X65" s="7"/>
       <c r="Y65" s="0"/>
@@ -60515,68 +60584,69 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E66" s="0"/>
       <c r="F66" s="3"/>
       <c r="G66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X66" s="7"/>
       <c r="Y66" s="0"/>
@@ -61582,68 +61652,69 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E67" s="0"/>
       <c r="F67" s="3"/>
       <c r="G67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="0"/>
@@ -62649,68 +62720,69 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E68" s="0"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X68" s="7"/>
       <c r="Y68" s="0"/>
@@ -63716,68 +63788,69 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E69" s="0"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S69" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="0"/>
@@ -64783,68 +64856,69 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E70" s="0"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X70" s="7"/>
       <c r="Y70" s="0"/>
@@ -65850,69 +65924,69 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W71" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="0"/>
@@ -66942,107 +67016,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>195</v>
+      <c r="B2" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="40" t="s">
         <v>199</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>202</v>
+      <c r="B4" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>202</v>
+      <c r="C5" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="33" t="s">
-        <v>204</v>
+      <c r="C8" s="39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>207</v>
+      <c r="C9" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>209</v>
+      <c r="C10" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>209</v>
+      <c r="C11" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>212</v>
+      <c r="C12" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>212</v>
+      <c r="C13" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>209</v>
+      <c r="C14" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -67069,22 +67143,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>215</v>
+      <c r="A1" s="39" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>29</v>
+      <c r="A2" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>132</v>
+      <c r="A3" s="39" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="221">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -98,6 +99,9 @@
     <t xml:space="preserve">column names</t>
   </si>
   <si>
+    <t xml:space="preserve">optional column</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPI type</t>
   </si>
   <si>
@@ -155,7 +159,10 @@
     <t xml:space="preserve">Product Availability KPI: If in the scene type "Adherencia de Materiales" there is at least one facing from product Categoria Tradicional "Materiales Urban" or sub_category "HE", then pass.</t>
   </si>
   <si>
-    <t xml:space="preserve">product_type, manufacturer_name, Categoria Tradicional, sub_category, store_type, Store Additional Attribute 4, template_name</t>
+    <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categoria Tradicional, sub_category</t>
   </si>
   <si>
     <t xml:space="preserve">Equipo Frio</t>
@@ -880,6 +887,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1008,10 +1019,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1108,42 +1115,43 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="79.6428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="149.030612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="163.204081632653"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="3" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="78.6989795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="147.413265306122"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="161.316326530612"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.29081632653061"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1210,84 +1218,86 @@
       <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="9" t="n">
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="10" t="s">
+      <c r="T2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="0"/>
+      <c r="X2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="8"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -2290,72 +2300,74 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="0"/>
+      <c r="Y3" s="8"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -3358,72 +3370,71 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="U4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="0"/>
+      <c r="V4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="8"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
@@ -4426,71 +4437,70 @@
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="0"/>
+      <c r="X5" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="Y5" s="0"/>
       <c r="Z5" s="0"/>
       <c r="AA5" s="0"/>
@@ -5494,72 +5504,71 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="9" t="n">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="12" t="s">
+      <c r="T6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="0"/>
+      <c r="U6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
@@ -6562,72 +6571,71 @@
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="V7" s="10" t="s">
+      <c r="T7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="0"/>
+      <c r="U7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -7628,144 +7636,144 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="15" t="n">
+    <row r="8" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16" t="n">
         <v>153</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="15" t="n">
+      <c r="I8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="15" t="s">
+      <c r="T8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="18"/>
+      <c r="V8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="0"/>
+      <c r="X8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="0"/>
+        <v>76</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="8"/>
       <c r="Z9" s="0"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
@@ -8766,210 +8774,211 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="15" t="s">
+    <row r="10" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="0"/>
+      <c r="X10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Y10" s="19"/>
+    </row>
+    <row r="11" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" s="18"/>
-    </row>
-    <row r="11" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>162</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>162</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="X11" s="18"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="8"/>
       <c r="Z12" s="0"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
@@ -9972,72 +9981,71 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="0"/>
+      <c r="X13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="8"/>
       <c r="Z13" s="0"/>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -11040,72 +11048,71 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T14" s="9" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="0"/>
+      <c r="S14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="8"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -12108,72 +12115,71 @@
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="8"/>
       <c r="Z15" s="0"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
@@ -13174,143 +13180,143 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="28" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="23" t="n">
+    <row r="16" s="29" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="T16" s="23" t="s">
+      <c r="Q16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="W16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" s="27" t="n">
+      <c r="S16" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" s="0"/>
+      <c r="X16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" s="28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="9" t="n">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="V17" s="9" t="s">
+      <c r="Q17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" s="0"/>
+      <c r="U17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="Y17" s="0"/>
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
@@ -14312,139 +14318,139 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="21" t="s">
+    <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="21" t="n">
+      <c r="G18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="T18" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="V18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="X18" s="30"/>
+      <c r="I18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="0"/>
+      <c r="X18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="V19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19" s="0"/>
+        <v>114</v>
+      </c>
+      <c r="V19" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
@@ -15448,75 +15454,74 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V20" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Z20" s="0"/>
+      <c r="V20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
@@ -16516,141 +16521,141 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+    <row r="21" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="10" t="n">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X21" s="30"/>
+      <c r="Q21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="0"/>
+      <c r="X21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X22" s="0"/>
+        <v>114</v>
+      </c>
+      <c r="V22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Y22" s="0"/>
       <c r="Z22" s="0"/>
       <c r="AA22" s="0"/>
@@ -17652,141 +17657,141 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="15" t="s">
+    <row r="23" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="16" t="n">
+        <v>162</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="15" t="n">
-        <v>162</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="X23" s="18"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Y24" s="0"/>
       <c r="Z24" s="0"/>
       <c r="AA24" s="0"/>
@@ -18790,72 +18795,71 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="0"/>
+      <c r="X25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="8"/>
       <c r="Z25" s="0"/>
       <c r="AA25" s="0"/>
       <c r="AB25" s="0"/>
@@ -19858,72 +19862,71 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T26" s="9" t="s">
+      <c r="Q26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="0"/>
+      <c r="S26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y26" s="8"/>
       <c r="Z26" s="0"/>
       <c r="AA26" s="0"/>
       <c r="AB26" s="0"/>
@@ -20926,71 +20929,70 @@
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X27" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Y27" s="0"/>
       <c r="Z27" s="0"/>
       <c r="AA27" s="0"/>
@@ -21994,75 +21996,74 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" s="9" t="s">
+      <c r="X28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="V28" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z28" s="0"/>
       <c r="AA28" s="0"/>
       <c r="AB28" s="0"/>
       <c r="AC28" s="0"/>
@@ -23064,75 +23065,74 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="9" t="n">
+      <c r="F29" s="10"/>
+      <c r="G29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U29" s="12" t="s">
+      <c r="Q29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="V29" s="36" t="s">
+      <c r="T29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="0"/>
+      <c r="U29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V29" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0"/>
       <c r="AC29" s="0"/>
@@ -24134,72 +24134,71 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="V30" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="0"/>
+      <c r="S30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V30" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" s="8"/>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
       <c r="AB30" s="0"/>
@@ -25202,72 +25201,71 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="9" t="n">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="W31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="0"/>
+      <c r="Q31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="8"/>
       <c r="Z31" s="0"/>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0"/>
@@ -26270,72 +26268,71 @@
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="V32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="0"/>
+      <c r="Q32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="8"/>
       <c r="Z32" s="0"/>
       <c r="AA32" s="0"/>
       <c r="AB32" s="0"/>
@@ -27338,72 +27335,71 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N33" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="0"/>
+      <c r="X33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y33" s="8"/>
       <c r="Z33" s="0"/>
       <c r="AA33" s="0"/>
       <c r="AB33" s="0"/>
@@ -28406,72 +28402,71 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="0"/>
+      <c r="Q34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="8"/>
       <c r="Z34" s="0"/>
       <c r="AA34" s="0"/>
       <c r="AB34" s="0"/>
@@ -29474,72 +29469,71 @@
     </row>
     <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="0"/>
+      <c r="Q35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y35" s="8"/>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
       <c r="AB35" s="0"/>
@@ -30542,75 +30536,74 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="9" t="n">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="Q36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="U36" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="V36" s="35" t="s">
+      <c r="Q36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="W36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="33" t="s">
+      <c r="U36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Z36" s="0"/>
+      <c r="V36" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0"/>
       <c r="AC36" s="0"/>
@@ -31610,142 +31603,142 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="15" t="n">
+    <row r="37" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="16" t="n">
         <v>160</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="15" t="n">
+      <c r="I37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V37" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W37" s="15" t="s">
+      <c r="U37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X37" s="18"/>
+      <c r="V37" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="W37" s="0"/>
+      <c r="X37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="9" t="n">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="Q38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V38" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="W38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="0"/>
+      <c r="Q38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V38" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y38" s="8"/>
       <c r="Z38" s="0"/>
       <c r="AA38" s="0"/>
       <c r="AB38" s="0"/>
@@ -32748,72 +32741,71 @@
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P39" s="9" t="n">
+        <v>136</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q39" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="V39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="0"/>
+      <c r="Q39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y39" s="8"/>
       <c r="Z39" s="0"/>
       <c r="AA39" s="0"/>
       <c r="AB39" s="0"/>
@@ -33816,72 +33808,71 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40" s="8"/>
       <c r="Z40" s="0"/>
       <c r="AA40" s="0"/>
       <c r="AB40" s="0"/>
@@ -34884,72 +34875,71 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41" s="8"/>
       <c r="Z41" s="0"/>
       <c r="AA41" s="0"/>
       <c r="AB41" s="0"/>
@@ -35952,72 +35942,71 @@
     </row>
     <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y42" s="8"/>
       <c r="Z42" s="0"/>
       <c r="AA42" s="0"/>
       <c r="AB42" s="0"/>
@@ -37020,75 +37009,74 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" s="9" t="n">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="Q43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S43" s="9" t="s">
+      <c r="Q43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="T43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="V43" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="W43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
       <c r="AB43" s="0"/>
       <c r="AC43" s="0"/>
@@ -38088,142 +38076,142 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="19" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="15" t="n">
+    <row r="44" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="16" t="n">
         <v>160</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" s="15" t="n">
+      <c r="I44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="T44" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S44" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V44" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W44" s="15" t="s">
+      <c r="U44" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X44" s="18"/>
+      <c r="V44" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="W44" s="0"/>
+      <c r="X44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" s="9" t="n">
+      <c r="F45" s="10"/>
+      <c r="G45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q45" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T45" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="V45" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="W45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="0"/>
+      <c r="Q45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V45" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y45" s="8"/>
       <c r="Z45" s="0"/>
       <c r="AA45" s="0"/>
       <c r="AB45" s="0"/>
@@ -39226,70 +39214,69 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U46" s="12" t="s">
+      <c r="Q46" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="V46" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="W46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="0"/>
+      <c r="R46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V46" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y46" s="8"/>
       <c r="Z46" s="0"/>
       <c r="AA46" s="0"/>
       <c r="AB46" s="0"/>
@@ -40292,72 +40279,71 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P47" s="9" t="n">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="Q47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T47" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V47" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="W47" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="0"/>
+      <c r="Q47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U47" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V47" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y47" s="8"/>
       <c r="Z47" s="0"/>
       <c r="AA47" s="0"/>
       <c r="AB47" s="0"/>
@@ -41360,72 +41346,71 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>15</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T48" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="U48" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V48" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="W48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="0"/>
+      <c r="U48" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="V48" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y48" s="8"/>
       <c r="Z48" s="0"/>
       <c r="AA48" s="0"/>
       <c r="AB48" s="0"/>
@@ -42428,72 +42413,71 @@
     </row>
     <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>10</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="0"/>
+        <v>148</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y49" s="8"/>
       <c r="Z49" s="0"/>
       <c r="AA49" s="0"/>
       <c r="AB49" s="0"/>
@@ -43496,72 +43480,71 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="0"/>
+        <v>148</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y50" s="8"/>
       <c r="Z50" s="0"/>
       <c r="AA50" s="0"/>
       <c r="AB50" s="0"/>
@@ -44564,72 +44547,71 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>5</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="0"/>
+        <v>148</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="8"/>
       <c r="Z51" s="0"/>
       <c r="AA51" s="0"/>
       <c r="AB51" s="0"/>
@@ -45632,72 +45614,71 @@
     </row>
     <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="0"/>
+        <v>148</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y52" s="8"/>
       <c r="Z52" s="0"/>
       <c r="AA52" s="0"/>
       <c r="AB52" s="0"/>
@@ -46700,72 +46681,71 @@
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>80</v>
+        <v>137</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P53" s="9" t="n">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Q53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T53" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="U53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V53" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="W53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="0"/>
+      <c r="Q53" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="U53" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="V53" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y53" s="8"/>
       <c r="Z53" s="0"/>
       <c r="AA53" s="0"/>
       <c r="AB53" s="0"/>
@@ -47768,72 +47748,71 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="9" t="n">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="Q54" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T54" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U54" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V54" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="W54" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="0"/>
+      <c r="Q54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V54" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y54" s="8"/>
       <c r="Z54" s="0"/>
       <c r="AA54" s="0"/>
       <c r="AB54" s="0"/>
@@ -48836,72 +48815,71 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="0"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="11" t="s">
-        <v>29</v>
+      <c r="G55" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>29</v>
+      <c r="Q55" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="0"/>
+        <v>155</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y55" s="8"/>
       <c r="Z55" s="0"/>
       <c r="AA55" s="0"/>
       <c r="AB55" s="0"/>
@@ -49904,72 +49882,71 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E56" s="0"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="11" t="s">
-        <v>29</v>
+      <c r="G56" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>29</v>
+      <c r="Q56" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y56" s="8"/>
       <c r="Z56" s="0"/>
       <c r="AA56" s="0"/>
       <c r="AB56" s="0"/>
@@ -50972,72 +50949,71 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="0"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="11" t="s">
-        <v>29</v>
+      <c r="G57" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>29</v>
+      <c r="Q57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="0"/>
+        <v>139</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y57" s="8"/>
       <c r="Z57" s="0"/>
       <c r="AA57" s="0"/>
       <c r="AB57" s="0"/>
@@ -52040,72 +52016,71 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E58" s="0"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="11" t="s">
-        <v>29</v>
+      <c r="G58" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q58" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>29</v>
+      <c r="Q58" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="0"/>
+        <v>139</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y58" s="8"/>
       <c r="Z58" s="0"/>
       <c r="AA58" s="0"/>
       <c r="AB58" s="0"/>
@@ -53108,72 +53083,71 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E59" s="0"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="11" t="s">
-        <v>29</v>
+      <c r="G59" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q59" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R59" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>29</v>
+      <c r="Q59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y59" s="8"/>
       <c r="Z59" s="0"/>
       <c r="AA59" s="0"/>
       <c r="AB59" s="0"/>
@@ -54176,72 +54150,71 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="0"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="11" t="s">
-        <v>29</v>
+      <c r="G60" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>29</v>
+      <c r="Q60" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="0"/>
+        <v>139</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y60" s="8"/>
       <c r="Z60" s="0"/>
       <c r="AA60" s="0"/>
       <c r="AB60" s="0"/>
@@ -55244,72 +55217,71 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E61" s="0"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="11" t="s">
-        <v>29</v>
+      <c r="G61" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q61" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R61" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>29</v>
+      <c r="Q61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="0"/>
+        <v>139</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y61" s="8"/>
       <c r="Z61" s="0"/>
       <c r="AA61" s="0"/>
       <c r="AB61" s="0"/>
@@ -56312,72 +56284,71 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E62" s="0"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="11" t="s">
-        <v>29</v>
+      <c r="G62" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>29</v>
+        <v>173</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q62" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>29</v>
+      <c r="Q62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y62" s="8"/>
       <c r="Z62" s="0"/>
       <c r="AA62" s="0"/>
       <c r="AB62" s="0"/>
@@ -57380,72 +57351,71 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="0"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="11" t="s">
-        <v>29</v>
+      <c r="G63" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>29</v>
+      <c r="Q63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y63" s="8"/>
       <c r="Z63" s="0"/>
       <c r="AA63" s="0"/>
       <c r="AB63" s="0"/>
@@ -58448,72 +58418,71 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E64" s="0"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="11" t="s">
-        <v>29</v>
+      <c r="G64" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q64" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R64" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>29</v>
+      <c r="Q64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y64" s="8"/>
       <c r="Z64" s="0"/>
       <c r="AA64" s="0"/>
       <c r="AB64" s="0"/>
@@ -59516,72 +59485,71 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E65" s="0"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="11" t="s">
-        <v>29</v>
+      <c r="G65" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q65" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>29</v>
+      <c r="Q65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y65" s="8"/>
       <c r="Z65" s="0"/>
       <c r="AA65" s="0"/>
       <c r="AB65" s="0"/>
@@ -60584,72 +60552,71 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="0"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="11" t="s">
-        <v>29</v>
+      <c r="G66" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>29</v>
+        <v>175</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>29</v>
+      <c r="Q66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U66" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="0"/>
+      <c r="X66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y66" s="8"/>
       <c r="Z66" s="0"/>
       <c r="AA66" s="0"/>
       <c r="AB66" s="0"/>
@@ -61652,72 +61619,71 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E67" s="0"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="11" t="s">
-        <v>29</v>
+      <c r="G67" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>29</v>
+        <v>175</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>29</v>
+      <c r="Q67" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="0"/>
+      <c r="X67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y67" s="8"/>
       <c r="Z67" s="0"/>
       <c r="AA67" s="0"/>
       <c r="AB67" s="0"/>
@@ -62720,72 +62686,71 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" s="0"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q68" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R68" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>29</v>
+      <c r="Q68" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R68" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="8"/>
       <c r="Z68" s="0"/>
       <c r="AA68" s="0"/>
       <c r="AB68" s="0"/>
@@ -63788,72 +63753,71 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E69" s="0"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>29</v>
+      <c r="Q69" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R69" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="8"/>
       <c r="Z69" s="0"/>
       <c r="AA69" s="0"/>
       <c r="AB69" s="0"/>
@@ -64856,72 +64820,71 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E70" s="0"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q70" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>29</v>
+      <c r="Q70" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y70" s="8"/>
       <c r="Z70" s="0"/>
       <c r="AA70" s="0"/>
       <c r="AB70" s="0"/>
@@ -65924,72 +65887,71 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H71" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>29</v>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T71" s="9" t="s">
-        <v>194</v>
+      <c r="Q71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T71" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W71" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="X71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y71" s="8"/>
       <c r="Z71" s="0"/>
       <c r="AA71" s="0"/>
       <c r="AB71" s="0"/>
@@ -67016,107 +66978,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>198</v>
+      <c r="B2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="39" t="s">
         <v>202</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="39" t="s">
         <v>205</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="39" t="s">
-        <v>207</v>
+      <c r="C8" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="C9" s="7" t="s">
         <v>210</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>212</v>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>212</v>
+      <c r="C11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>215</v>
+      <c r="C12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>215</v>
+      <c r="C13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>212</v>
+      <c r="C14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -67143,22 +67105,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>218</v>
+      <c r="A1" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>30</v>
+      <c r="A2" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>136</v>
+      <c r="A3" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -396,7 +397,7 @@
     <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, Store Additional Attribute 13, template_name,AC/BET</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Set FRIA Botella Cerrada Sin Cooler</t>
@@ -1115,40 +1116,40 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="Z43" activeCellId="0" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="78.6989795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="147.413265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="161.316326530612"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="77.7551020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="145.790816326531"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="159.561224489796"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -66977,9 +66978,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
@@ -67104,9 +67102,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -250,7 +251,7 @@
     <t xml:space="preserve">ABI-GM, NESTLE, GARCI CRESPO, KERMATO, RED BULL</t>
   </si>
   <si>
-    <t xml:space="preserve">BC, CONCESIONARIOS</t>
+    <t xml:space="preserve">BC, CONCESIONARIO</t>
   </si>
   <si>
     <t xml:space="preserve">CC</t>
@@ -1116,40 +1117,40 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Z43" activeCellId="0" sqref="Z43"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="R12" activeCellId="0" sqref="R9:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="77.7551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="145.790816326531"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="159.561224489796"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="76.8112244897959"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="144.173469387755"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="157.80612244898"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -66974,10 +66975,13 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="R9:R28 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
@@ -67098,10 +67102,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R9:R28 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -13,7 +13,7 @@
     <sheet name="store types" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$C$1:$C$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -161,7 +162,7 @@
     <t xml:space="preserve">Product Availability KPI: If in the scene type "Adherencia de Materiales" there is at least one facing from product Categoria Tradicional "Materiales Urban" or sub_category "HE", then pass.</t>
   </si>
   <si>
-    <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, template_name</t>
+    <t xml:space="preserve">product_type, manufacturer_name,  template_name</t>
   </si>
   <si>
     <t xml:space="preserve"> Categoria Tradicional, sub_category</t>
@@ -1112,45 +1113,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="R12" activeCellId="0" sqref="R9:R28"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="76.8112244897959"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="144.173469387755"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="157.80612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="76"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="142.551020408163"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="156.051020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="58.719387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3370,7 +3371,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4437,7 +4438,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -5504,7 +5505,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -6571,7 +6572,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -7638,7 +7639,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
@@ -7707,7 +7708,7 @@
       </c>
       <c r="Y8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -8776,7 +8777,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
         <v>68</v>
       </c>
@@ -8845,7 +8846,7 @@
       </c>
       <c r="Y10" s="19"/>
     </row>
-    <row r="11" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
@@ -8914,7 +8915,7 @@
       </c>
       <c r="Y11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -9981,7 +9982,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -11048,7 +11049,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -12115,7 +12116,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -13182,7 +13183,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="29" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="29" customFormat="true" ht="13" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>68</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -14320,7 +14321,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="22" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
         <v>68</v>
       </c>
@@ -14387,7 +14388,7 @@
       </c>
       <c r="Y18" s="31"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -15454,7 +15455,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -16523,7 +16524,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="14" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
         <v>122</v>
       </c>
@@ -16592,7 +16593,7 @@
       </c>
       <c r="Y21" s="31"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>122</v>
       </c>
@@ -17659,7 +17660,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>122</v>
       </c>
@@ -17728,7 +17729,7 @@
       </c>
       <c r="Y23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>122</v>
       </c>
@@ -18795,7 +18796,7 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -19862,7 +19863,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
@@ -20929,7 +20930,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>122</v>
       </c>
@@ -21996,7 +21997,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -23065,7 +23066,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
@@ -24134,7 +24135,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -25201,7 +25202,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -26268,7 +26269,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -27335,7 +27336,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
@@ -28402,7 +28403,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -29469,7 +29470,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>126</v>
       </c>
@@ -30536,7 +30537,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -31605,7 +31606,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>126</v>
       </c>
@@ -31674,7 +31675,7 @@
       </c>
       <c r="Y37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
@@ -32741,7 +32742,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>136</v>
       </c>
@@ -33808,7 +33809,7 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>136</v>
       </c>
@@ -34875,7 +34876,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
@@ -35942,7 +35943,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>136</v>
       </c>
@@ -37009,7 +37010,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -38078,7 +38079,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>136</v>
       </c>
@@ -38147,7 +38148,7 @@
       </c>
       <c r="Y44" s="19"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -39214,7 +39215,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -40279,7 +40280,7 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -41346,7 +41347,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -42413,7 +42414,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>137</v>
       </c>
@@ -43480,7 +43481,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>137</v>
       </c>
@@ -44547,7 +44548,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>137</v>
       </c>
@@ -45614,7 +45615,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -46681,7 +46682,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -47748,7 +47749,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -48815,7 +48816,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -49882,7 +49883,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -50949,7 +50950,7 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -52016,7 +52017,7 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -53083,7 +53084,7 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -54150,7 +54151,7 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -55217,7 +55218,7 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -56284,7 +56285,7 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -57351,7 +57352,7 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -58418,7 +58419,7 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -59485,7 +59486,7 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -60552,7 +60553,7 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -61619,7 +61620,7 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -62686,7 +62687,7 @@
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -63753,7 +63754,7 @@
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -64820,7 +64821,7 @@
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -65887,7 +65888,7 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -66955,7 +66956,13 @@
       <c r="AMJ71" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W71"/>
+  <autoFilter ref="C1:C71">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Adherencia de materiales"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -66975,12 +66982,12 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="R9:R28 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67102,12 +67109,12 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R9:R28 A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v2.xlsx
@@ -13,7 +13,7 @@
     <sheet name="store types" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$C$1:$C$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">template!$A$1:$W$71</definedName>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">Product Availability KPI: If in the scene type "Adherencia de Materiales" there is at least one facing from product Categoria Tradicional "Materiales Urban" or sub_category "HE", then pass.</t>
   </si>
   <si>
-    <t xml:space="preserve">product_type, manufacturer_name,  template_name</t>
+    <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, template_name</t>
   </si>
   <si>
     <t xml:space="preserve"> Categoria Tradicional, sub_category</t>
@@ -1113,15 +1113,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1147,7 +1147,7 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="54.8061224489796"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="142.551020408163"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="156.051020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="58.719387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="30.6428571428571"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.0612244897959"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="3" width="27.2704081632653"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.61224489795918"/>
@@ -1234,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -7639,7 +7639,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="Y8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
         <v>68</v>
       </c>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="Y10" s="19"/>
     </row>
-    <row r="11" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="Y11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -11049,7 +11049,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -13183,7 +13183,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="29" customFormat="true" ht="13" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="29" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>68</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -14321,7 +14321,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="22" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
         <v>68</v>
       </c>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="Y18" s="31"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -15455,7 +15455,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -16524,7 +16524,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="14" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
         <v>122</v>
       </c>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="Y21" s="31"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>122</v>
       </c>
@@ -17660,7 +17660,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="20" customFormat="true" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>122</v>
       </c>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="Y23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>122</v>
       </c>
@@ -18796,7 +18796,7 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
@@ -20930,7 +20930,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>122</v>
       </c>
@@ -21997,7 +21997,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -23066,7 +23066,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
@@ -24135,7 +24135,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
@@ -25202,7 +25202,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -26269,7 +26269,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -27336,7 +27336,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
@@ -28403,7 +28403,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -29470,7 +29470,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>126</v>
       </c>
@@ -30537,7 +30537,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -31606,7 +31606,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>126</v>
       </c>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="Y37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
@@ -32742,7 +32742,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>136</v>
       </c>
@@ -33809,7 +33809,7 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>136</v>
       </c>
@@ -34876,7 +34876,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
@@ -35943,7 +35943,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>136</v>
       </c>
@@ -37010,7 +37010,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -38079,7 +38079,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="20" customFormat="true" ht="35.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="20" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>136</v>
       </c>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="Y44" s="19"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -39215,7 +39215,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -40280,7 +40280,7 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -41347,7 +41347,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -42414,7 +42414,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>137</v>
       </c>
@@ -43481,7 +43481,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>137</v>
       </c>
@@ -44548,7 +44548,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>137</v>
       </c>
@@ -45615,7 +45615,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -46682,7 +46682,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="24.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -47749,7 +47749,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -48816,7 +48816,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -49883,7 +49883,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -50950,7 +50950,7 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -52017,7 +52017,7 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -53084,7 +53084,7 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -54151,7 +54151,7 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -55218,7 +55218,7 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -56285,7 +56285,7 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -57352,7 +57352,7 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -58419,7 +58419,7 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -59486,7 +59486,7 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -60553,7 +60553,7 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -61620,7 +61620,7 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -62687,7 +62687,7 @@
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -63754,7 +63754,7 @@
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -64821,7 +64821,7 @@
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -65888,7 +65888,7 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -66956,13 +66956,7 @@
       <c r="AMJ71" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C71">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Adherencia de materiales"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -67109,7 +67103,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
